--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/15kontrbetBrokenIMGListWeb.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/15kontrbetBrokenIMGListWeb.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="920">
   <si>
     <t>74  Game ID = 82377  Game Provider Name = QuickSpin   Game Name =  Sticky Bandits: Wild return  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
@@ -29,9 +29,6 @@
     <t>102  Game ID = 80849  Game Provider Name = Booongo   Game Name =  15 Golden Eggs  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>107  Game ID = 82105  Game Provider Name = PlayTech   Game Name =  28 Mansions  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>108  Game ID = 81472  Game Provider Name = Playpearls   Game Name =  28 Spins Later  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -41,12 +38,6 @@
     <t>116  Game ID = 82810  Game Provider Name = PlaynGo   Game Name =  3-Hand Casino Hold'em  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>119  Game ID = 80586  Game Provider Name = RedTiger   Game Name =  4 Squad  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>120  Game ID = 80736  Game Provider Name = Spinthon   Game Name =  40 hot hot hot  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>125  Game ID = 82512  Game Provider Name = RealisticGames   Game Name =  5 Hand Blackjack  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -68,42 +59,15 @@
     <t>152  Game ID = 82514  Game Provider Name = RealisticGames   Game Name =  8th Wonder Pull Tab  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>157  Game ID = 82106  Game Provider Name = PlayTech   Game Name =  A Night Out  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>158  Game ID = 82278  Game Provider Name = PlayTech   Game Name =  Absolutely Mammoth  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>160  Game ID = 82788  Game Provider Name = Habanero   Game Name =  Aces &amp; Eights 1 Hand  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>161  Game ID = 82783  Game Provider Name = Habanero   Game Name =  Aces &amp; Eights 10 Hand  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>162  Game ID = 82780  Game Provider Name = Habanero   Game Name =  Aces &amp; Eights 100 Hand  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>163  Game ID = 82772  Game Provider Name = Habanero   Game Name =  Aces &amp; Eights 5 Hand  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>164  Game ID = 82773  Game Provider Name = Habanero   Game Name =  Aces &amp; Eights 50 Hand  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>166  Game ID = 82107  Game Provider Name = PlayTech   Game Name =  Adventure Trail Fireblaze Jackpots  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
     <t>170  Game ID = 80935  Game Provider Name = Yggdrasil   Game Name =  Age of Asgard™  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>173  Game ID = 82108  Game Provider Name = PlayTech   Game Name =  Age of Egypt  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>180  Game ID = 81360  Game Provider Name = Microgaming   Game Name =  Akiva - Claws of Power  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>185  Game ID = 81449  Game Provider Name = Leap   Game Name =  AliBaba's Gold  cod = 404   src = https://resources.kontrbet.com/products/rubyplay/web/AliBabasgold.jpg</t>
-  </si>
-  <si>
     <t>189  Game ID = 82754  Game Provider Name = Habanero   Game Name =  All American Poker 1 Hand  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -131,9 +95,6 @@
     <t>198  Game ID = 80927  Game Provider Name = Hacksaw   Game Name =  Alpha Eagle  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>200  Game ID = 82109  Game Provider Name = PlayTech   Game Name =  Amazon Wild  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>201  Game ID = 82790  Game Provider Name = Habanero   Game Name =  American Baccarat  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -143,18 +104,12 @@
     <t>203  Game ID = 82792  Game Provider Name = Habanero   Game Name =  American Blackjack  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>204  Game ID = 80756  Game Provider Name = Spinthon   Game Name =  Amsterdam Trophy  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>205  Game ID = 82306  Game Provider Name = PlayTech   Game Name =  Anaconda Uncoiled  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
     <t>206  Game ID = 82110  Game Provider Name = PlayTech   Game Name =  Anaconda Wild  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>207  Game ID = 82111  Game Provider Name = PlayTech   Game Name =  Anaconda Wild II  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>214  Game ID = 82735  Game Provider Name = Playpearls   Game Name =  Andar Bahar  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -185,33 +140,18 @@
     <t>252  Game ID = 82273  Game Provider Name = PlayTech   Game Name =  Aztec Expedition  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>259  Game ID = 81458  Game Provider Name = Leap   Game Name =  Aztec StarGems  cod = 404   src = https://resources.kontrbet.com/products/rubyplay/web/aztecstargems.jpg</t>
-  </si>
-  <si>
     <t>261  Game ID = 81523  Game Provider Name = Playpearls   Game Name =  Aztec Treasure  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>262  Game ID = 80907  Game Provider Name = Hacksaw   Game Name =  Aztec Twist  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>264  Game ID = 82331  Game Provider Name = PlayTech   Game Name =  Azteca - Bonus Lines  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>268  Game ID = 82733  Game Provider Name = Playpearls   Game Name =  Baccarat  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>269  Game ID = 82488  Game Provider Name = RedTiger   Game Name =  Baccarat - Punto Banco  cod = 403   src = https://resources.kontrbet.com/products/</t>
+    <t>267  Game ID = 82733  Game Provider Name = Playpearls   Game Name =  Baccarat  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
     <t>270  Game ID = 82115  Game Provider Name = PlayTech   Game Name =  Bai Shi  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>272  Game ID = 80752  Game Provider Name = Spinthon   Game Name =  Balkanian Rhapsody 1  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>273  Game ID = 80747  Game Provider Name = Spinthon   Game Name =  Balkanian Rhapsody 2 (An Ode to Love)  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>274  Game ID = 82627  Game Provider Name = Hacksaw   Game Name =  Balloons  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -236,9 +176,6 @@
     <t>295  Game ID = 80780  Game Provider Name = RealisticGames   Game Name =  Bar-X-7even  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>299  Game ID = 82116  Game Provider Name = PlayTech   Game Name =  Beach Life  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>303  Game ID = 82516  Game Provider Name = RealisticGames   Game Name =  Bee Fab Pull Tab  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -248,15 +185,9 @@
     <t>305  Game ID = 80458  Game Provider Name = NetEnt   Game Name =  Bee Hive Bonanza  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>308  Game ID = 80741  Game Provider Name = Spinthon   Game Name =  Belgravia Nightmare  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>311  Game ID = 82118  Game Provider Name = PlayTech   Game Name =  Bermuda Triangle  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>312  Game ID = 82119  Game Provider Name = PlayTech   Game Name =  Berry Berry Bonanza  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>314  Game ID = 82120  Game Provider Name = PlayTech   Game Name =  Better Wilds  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -269,9 +200,6 @@
     <t>331  Game ID = 81478  Game Provider Name = Playpearls   Game Name =  Big Game Hunter  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>334  Game ID = 82121  Game Provider Name = PlayTech   Game Name =  Big Shots  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>335  Game ID = 80782  Game Provider Name = RealisticGames   Game Name =  Big Wheel  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -311,21 +239,12 @@
     <t>372  Game ID = 82122  Game Provider Name = PlayTech   Game Name =  Blazing Bells  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>377  Game ID = 80719  Game Provider Name = Spinthon   Game Name =  Blazing Joker  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>385  Game ID = 81479  Game Provider Name = Playpearls   Game Name =  Bloody Mary's Booty  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>387  Game ID = 82123  Game Provider Name = PlayTech   Game Name =  Blue Wizard  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>393  Game ID = 82124  Game Provider Name = PlayTech   Game Name =  Bombs  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>396  Game ID = 82125  Game Provider Name = PlayTech   Game Name =  Bonus Bears  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>397  Game ID = 81751  Game Provider Name = NoLimitCity   Game Name =  Bonus Bunnies  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -359,9 +278,6 @@
     <t>412  Game ID = 80832  Game Provider Name = RealisticGames   Game Name =  Book of Charms  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>420  Game ID = 82127  Game Provider Name = PlayTech   Game Name =  Book of Kings  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>421  Game ID = 82128  Game Provider Name = PlayTech   Game Name =  Book Of Kings 2  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -371,9 +287,6 @@
     <t>432  Game ID = 80931  Game Provider Name = Hacksaw   Game Name =  Book of Time  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>440  Game ID = 80922  Game Provider Name = Hacksaw   Game Name =  Born Wild  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>445  Game ID = 82633  Game Provider Name = Hacksaw   Game Name =  Boxes  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -386,52 +299,25 @@
     <t>449  Game ID = 82628  Game Provider Name = Hacksaw   Game Name =  Break the Ice  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>450  Game ID = 80722  Game Provider Name = Spinthon   Game Name =  Break the Lines  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>451  Game ID = 82129  Game Provider Name = PlayTech   Game Name =  Breakout Bob  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
     <t>454  Game ID = 82130  Game Provider Name = PlayTech   Game Name =  Buccaneer Blast  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>455  Game ID = 82131  Game Provider Name = PlayTech   Game Name =  Buckle up  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>457  Game ID = 82132  Game Provider Name = PlayTech   Game Name =  Buffalo Blitz  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>458  Game ID = 82133  Game Provider Name = PlayTech   Game Name =  Buffalo Blitz 2  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>459  Game ID = 82314  Game Provider Name = PlayTech   Game Name =  Buffalo Blitz Live Slots  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>462  Game ID = 81756  Game Provider Name = NoLimitCity   Game Name =  Buffalo Hunter  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
     <t>467  Game ID = 82081  Game Provider Name = PlaysonDirect   Game Name =  Buffalo Power: Megaways™  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>468  Game ID = 80920  Game Provider Name = Hacksaw   Game Name =  Buffalo Stack’n’Sync  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>469  Game ID = 82811  Game Provider Name = PlaynGo   Game Name =  Bugs Party  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
     <t>475  Game ID = 82518  Game Provider Name = RealisticGames   Game Name =  Bully4U Pull Tab  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>481  Game ID = 80723  Game Provider Name = Spinthon   Game Name =  Burning Joker  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>482  Game ID = 80721  Game Provider Name = Spinthon   Game Name =  Burning Magic  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>483  Game ID = 80738  Game Provider Name = Spinthon   Game Name =  Burning Skull  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>484  Game ID = 80720  Game Provider Name = Spinthon   Game Name =  Burning Wild  cod = 403   src = https://resources.kontrbet.com/products/</t>
+    <t>484  Game ID = 80720  Game Provider Name = Spinthon   Game Name =  Burning Wild  cod = 404   src = https://resources.kontrbet.com/products/spinthon/web/Burning-Wild.jpg</t>
   </si>
   <si>
     <t>487  Game ID = 81762  Game Provider Name = NoLimitCity   Game Name =  Bushido Ways xNudge  cod = 403   src = https://resources.kontrbet.com/products/</t>
@@ -449,15 +335,6 @@
     <t>498  Game ID = 81112  Game Provider Name = Yggdrasil   Game Name =  Calavera Crush  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>500  Game ID = 82736  Game Provider Name = Salsa   Game Name =  Candy Bingo  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>501  Game ID = 82738  Game Provider Name = Salsa   Game Name =  Candy Bingo 3D  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>509  Game ID = 82135  Game Provider Name = PlayTech   Game Name =  Captain's Treasure  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>512  Game ID = 82791  Game Provider Name = Habanero   Game Name =  Caribbean Hold'Em  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -470,18 +347,12 @@
     <t>518  Game ID = 82136  Game Provider Name = PlayTech   Game Name =  Cascading Cave  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>520  Game ID = 80891  Game Provider Name = Hacksaw   Game Name =  Cash Compass  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>524  Game ID = 80225  Game Provider Name = PragmaticPlay   Game Name =  Cash Patrol  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
     <t>526  Game ID = 82629  Game Provider Name = Hacksaw   Game Name =  Cash Pool  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>528  Game ID = 80900  Game Provider Name = Hacksaw   Game Name =  Cash Quest  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>530  Game ID = 81480  Game Provider Name = Playpearls   Game Name =  Cash Spell  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -491,9 +362,6 @@
     <t>534  Game ID = 82631  Game Provider Name = Hacksaw   Game Name =  Cash Vault II  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>536  Game ID = 80727  Game Provider Name = Spinthon   Game Name =  Cashalot Boom  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>537  Game ID = 80785  Game Provider Name = RealisticGames   Game Name =  Cashing Rainbows  cod = 404   src = https://resources.kontrbet.com/products/realistic/web/cashingrainbow.jpg</t>
   </si>
   <si>
@@ -512,9 +380,6 @@
     <t>544  Game ID = 81727  Game Provider Name = NoLimitCity   Game Name =  Casino Win Spin  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>545  Game ID = 82138  Game Provider Name = PlayTech   Game Name =  Cat Queen  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>554  Game ID = 80946  Game Provider Name = Yggdrasil   Game Name =  Cazino Cosmos  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -527,9 +392,6 @@
     <t>561  Game ID = 80948  Game Provider Name = Yggdrasil   Game Name =  Champions of Rome  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>562  Game ID = 80917  Game Provider Name = Hacksaw   Game Name =  Chaos Crew  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>563  Game ID = 82640  Game Provider Name = Hacksaw   Game Name =  Chaos Crew Scratch  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -548,15 +410,9 @@
     <t>577  Game ID = 80163  Game Provider Name = PragmaticPlay   Game Name =  Chilli Heat Megaways™  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>578  Game ID = 82305  Game Provider Name = PlayTech   Game Name =  Chilli Xtreme  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>579  Game ID = 82332  Game Provider Name = PlayTech   Game Name =  Chilli Xtreme - PowerPlay  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>581  Game ID = 82139  Game Provider Name = PlayTech   Game Name =  Chinese Kitchen  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>588  Game ID = 82140  Game Provider Name = PlayTech   Game Name =  Christmas Jackpot Bells  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -569,12 +425,6 @@
     <t>595  Game ID = 82328  Game Provider Name = PlayTech   Game Name =  Circus Launch  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>601  Game ID = 82486  Game Provider Name = RedTiger   Game Name =  Classic Blackjack  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>602  Game ID = 81358  Game Provider Name = Microgaming   Game Name =  Classic Blackjack with Noble Diamonds  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>610  Game ID = 81603  Game Provider Name = RubyPlay   Game Name =  Clovers of Luck 2  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -596,12 +446,6 @@
     <t>622  Game ID = 80459  Game Provider Name = NetEnt   Game Name =  Cornelius  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>630  Game ID = 81462  Game Provider Name = Leap   Game Name =  C-Punk 5K  cod = 404   src = https://resources.kontrbet.com/products/rubyplay/web/cpunk.jpg</t>
-  </si>
-  <si>
-    <t>632  Game ID = 82142  Game Provider Name = PlayTech   Game Name =  Crazy 7  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>635  Game ID = 82674  Game Provider Name = Hacksaw   Game Name =  Crazy Donuts  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -611,24 +455,12 @@
     <t>639  Game ID = 80352  Game Provider Name = NetEnt   Game Name =  Creature from the Black Lagoon™  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>654  Game ID = 80916  Game Provider Name = Hacksaw   Game Name =  Cubes  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>655  Game ID = 80908  Game Provider Name = Hacksaw   Game Name =  Cubes 2  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>656  Game ID = 82749  Game Provider Name = Salsa   Game Name =  Cuca's Swamp Bingo  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>657  Game ID = 82271  Game Provider Name = PlayTech   Game Name =  Curse of Anubis  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
     <t>659  Game ID = 82667  Game Provider Name = Hacksaw   Game Name =  Cut the Grass  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>663  Game ID = 82143  Game Provider Name = PlayTech   Game Name =  Da Vinci's Vault  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>666  Game ID = 81483  Game Provider Name = Playpearls   Game Name =  Dangerous Billy  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -659,9 +491,6 @@
     <t>682  Game ID = 81485  Game Provider Name = Playpearls   Game Name =  Deep Sea  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>687  Game ID = 82144  Game Provider Name = PlayTech   Game Name =  Desert Treasure  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>688  Game ID = 81018  Game Provider Name = Yggdrasil   Game Name =  Desperate Dawgs  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -683,39 +512,21 @@
     <t>695  Game ID = 82812  Game Provider Name = PlaynGo   Game Name =  Deuces Wild MH  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>696  Game ID = 80493  Game Provider Name = RedTiger   Game Name =  Devil's Number  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>701  Game ID = 82091  Game Provider Name = PlaysonDirect   Game Name =  Diamond Fortunator: Hold and Win  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>702  Game ID = 81450  Game Provider Name = Leap   Game Name =  Diamond Heaven  cod = 404   src = https://resources.kontrbet.com/products/rubyplay/web/diamondheaven.jpg</t>
-  </si>
-  <si>
-    <t>703  Game ID = 80733  Game Provider Name = Spinthon   Game Name =  Diamond Luster  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>705  Game ID = 82307  Game Provider Name = PlayTech   Game Name =  Diamond Rise  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
     <t>707  Game ID = 82679  Game Provider Name = Hacksaw   Game Name =  Diamond Rush  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>708  Game ID = 81355  Game Provider Name = Microgaming   Game Name =  Diamond Sands  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>721  Game ID = 80357  Game Provider Name = NetEnt   Game Name =  Disco Danny  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
     <t>725  Game ID = 80443  Game Provider Name = NetEnt   Game Name =  Divine Fortune MegaWays™  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>731  Game ID = 82145  Game Provider Name = PlayTech   Game Name =  Dolphin Reef  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>734  Game ID = 80923  Game Provider Name = Hacksaw   Game Name =  Dork Unit  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>735  Game ID = 82796  Game Provider Name = Habanero   Game Name =  Double Bonus Poker 1 Hand  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -749,9 +560,6 @@
     <t>745  Game ID = 82813  Game Provider Name = PlaynGo   Game Name =  Double Exposure BlackJack MH  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>748  Game ID = 80894  Game Provider Name = Hacksaw   Game Name =  Double Rainbow  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>749  Game ID = 82665  Game Provider Name = Hacksaw   Game Name =  Double Salary - 1 Year  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -764,15 +572,6 @@
     <t>752  Game ID = 82521  Game Provider Name = RealisticGames   Game Name =  Double your Dough Pull Tab  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>761  Game ID = 82146  Game Provider Name = PlayTech   Game Name =  Dragon Champions  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>762  Game ID = 82147  Game Provider Name = PlayTech   Game Name =  Dragon Chi  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>770  Game ID = 80740  Game Provider Name = Spinthon   Game Name =  Dragon Margin  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>775  Game ID = 82148  Game Provider Name = PlayTech   Game Name =  Dragon Spark  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -785,9 +584,6 @@
     <t>780  Game ID = 82722  Game Provider Name = Playpearls   Game Name =  Dragons Cave  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>785  Game ID = 80498  Game Provider Name = RedTiger   Game Name =  Dragons Fire Megaways  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>787  Game ID = 81486  Game Provider Name = Playpearls   Game Name =  Dragons Gold  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -815,9 +611,6 @@
     <t>807  Game ID = 80953  Game Provider Name = Yggdrasil   Game Name =  Dwarf Mine  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>812  Game ID = 80724  Game Provider Name = Spinthon   Game Name =  Dynamite Wild  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>815  Game ID = 81761  Game Provider Name = NoLimitCity   Game Name =  East Coast Vs West Coast  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -827,15 +620,9 @@
     <t>818  Game ID = 81019  Game Provider Name = Yggdrasil   Game Name =  Easter Island 2  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>819  Game ID = 82149  Game Provider Name = PlayTech   Game Name =  Easter Surprise  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>820  Game ID = 80361  Game Provider Name = NetEnt   Game Name =  EggOMatic™  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>822  Game ID = 80751  Game Provider Name = Spinthon   Game Name =  Eggstra  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>823  Game ID = 82641  Game Provider Name = Hacksaw   Game Name =  Eggstra Cash  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -854,28 +641,16 @@
     <t>835  Game ID = 82151  Game Provider Name = PlayTech   Game Name =  Eliminators  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>840  Game ID = 80755  Game Provider Name = Spinthon   Game Name =  Emoticast  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>841  Game ID = 82304  Game Provider Name = PlayTech   Game Name =  Empire Treasures: Rulers of the World  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>845  Game ID = 81487  Game Provider Name = Playpearls   Game Name =  Enchanted Lot  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
     <t>849  Game ID = 82152  Game Provider Name = PlayTech   Game Name =  Epic Ape  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>852  Game ID = 82153  Game Provider Name = PlayTech   Game Name =  Eternal Lady  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>854  Game ID = 82814  Game Provider Name = PlaynGo   Game Name =  European BlackJack MH  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>855  Game ID = 82487  Game Provider Name = RedTiger   Game Name =  European Roulette  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>856  Game ID = 82806  Game Provider Name = Habanero   Game Name =  European Roulette  cod = 403   src = https://resources.kontrbet.com/products/</t>
+    <t>855  Game ID = 82806  Game Provider Name = Habanero   Game Name =  European Roulette  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
     <t>858  Game ID = 82815  Game Provider Name = PlaynGo   Game Name =  European Roulette Pro  cod = 403   src = https://resources.kontrbet.com/products/</t>
@@ -890,9 +665,6 @@
     <t>863  Game ID = 80199  Game Provider Name = PragmaticPlay   Game Name =  Extra Juicy Megaways™  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>864  Game ID = 82284  Game Provider Name = PlayTech   Game Name =  Eye of Anubis  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>874  Game ID = 82154  Game Provider Name = PlayTech   Game Name =  Fairground Fortunes Ghost Train  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -908,12 +680,6 @@
     <t>879  Game ID = 80365  Game Provider Name = NetEnt   Game Name =  Fairytale Legends: Red Riding Hood  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>880  Game ID = 82737  Game Provider Name = Salsa   Game Name =  Farm Bingo  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>883  Game ID = 81453  Game Provider Name = Leap   Game Name =  Feast O’Fruit  cod = 404   src = https://resources.kontrbet.com/products/rubyplay/web/feastoffruit.jpg</t>
-  </si>
-  <si>
     <t>885  Game ID = 82155  Game Provider Name = PlayTech   Game Name =  Fei Long Zai Tian  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -929,9 +695,6 @@
     <t>894  Game ID = 82156  Game Provider Name = PlayTech   Game Name =  Fire Blaze Golden Buccaneer Bells  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>895  Game ID = 82157  Game Provider Name = PlayTech   Game Name =  Fire Blaze Golden: Amazing Factory  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>896  Game ID = 82281  Game Provider Name = PlayTech   Game Name =  Fire Blaze Golden: Tundra Wolf  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -977,9 +740,6 @@
     <t>924  Game ID = 82523  Game Provider Name = RealisticGames   Game Name =  Fireworks Pull Tab  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>925  Game ID = 81359  Game Provider Name = Microgaming   Game Name =  Fishin' Christmas Pots Of Gold  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>927  Game ID = 82298  Game Provider Name = PlayTech   Game Name =  Fishing Bonanza  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -989,9 +749,6 @@
     <t>938  Game ID = 82816  Game Provider Name = PlaynGo   Game Name =  Flying Pigs  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>939  Game ID = 80746  Game Provider Name = Spinthon   Game Name =  Follow the Star  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>940  Game ID = 81778  Game Provider Name = NoLimitCity   Game Name =  Folsom Prison  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -1004,24 +761,15 @@
     <t>943  Game ID = 81470  Game Provider Name = Leap   Game Name =  Football Cup World  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>944  Game ID = 81357  Game Provider Name = Microgaming   Game Name =  Football Finals X UP  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>945  Game ID = 80955  Game Provider Name = Yggdrasil   Game Name =  Football Glory  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>946  Game ID = 81463  Game Provider Name = Leap   Game Name =  Football Penalty Duel  cod = 404   src = https://resources.kontrbet.com/products/rubyplay/web/footballpenaltyduel.jpg</t>
-  </si>
-  <si>
     <t>949  Game ID = 82163  Game Provider Name = PlayTech   Game Name =  Football Rules  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
     <t>950  Game ID = 82676  Game Provider Name = Hacksaw   Game Name =  Football Scratch  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>951  Game ID = 81469  Game Provider Name = Leap   Game Name =  Football Streak Champions  cod = 404   src = https://resources.kontrbet.com/products/rubyplay/web/footballstreakchampions.jpg</t>
-  </si>
-  <si>
     <t>952  Game ID = 80369  Game Provider Name = NetEnt   Game Name =  Football: Champions Cup™  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -1034,18 +782,12 @@
     <t>958  Game ID = 82165  Game Provider Name = PlayTech   Game Name =  Fortunate Five  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>960  Game ID = 80508  Game Provider Name = RedTiger   Game Name =  Fortune Charm  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>963  Game ID = 81653  Game Provider Name = Habanero   Game Name =  Fortune Dogs  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
     <t>964  Game ID = 80509  Game Provider Name = RedTiger   Game Name =  Fortune Fest  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>965  Game ID = 82297  Game Provider Name = PlayTech   Game Name =  Fortune Fortune Thundershots  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>966  Game ID = 80510  Game Provider Name = RedTiger   Game Name =  Fortune House  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -1073,12 +815,6 @@
     <t>985  Game ID = 80505  Game Provider Name = RedTiger   Game Name =  Fruit Blox  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>986  Game ID = 80924  Game Provider Name = Hacksaw   Game Name =  Fruit Duel  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>987  Game ID = 80725  Game Provider Name = Spinthon   Game Name =  Fruit Express  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>989  Game ID = 81489  Game Provider Name = Playpearls   Game Name =  Fruit Loops  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -1100,30 +836,18 @@
     <t>1000  Game ID = 80956  Game Provider Name = Yggdrasil   Game Name =  Fruitoids  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1001  Game ID = 80759  Game Provider Name = Spinthon   Game Name =  Fruitovski  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1002  Game ID = 81767  Game Provider Name = NoLimitCity   Game Name =  Fruits  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
     <t>1007  Game ID = 82319  Game Provider Name = PlayTech   Game Name =  Fruity Showers  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1008  Game ID = 80906  Game Provider Name = Hacksaw   Game Name =  Frutz  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1011  Game ID = 82286  Game Provider Name = PlayTech   Game Name =  Full Moon White Panda  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1012  Game ID = 82288  Game Provider Name = PlayTech   Game Name =  Full Moon Wild Track  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1014  Game ID = 80456  Game Provider Name = NetEnt   Game Name =  Funkmaster  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1015  Game ID = 82168  Game Provider Name = PlayTech   Game Name =  Funky Monkey  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1016  Game ID = 80262  Game Provider Name = PragmaticPlay   Game Name =  Fury of Odin Megaways  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -1139,9 +863,6 @@
     <t>1023  Game ID = 80831  Game Provider Name = RealisticGames   Game Name =  Game Changer  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1026  Game ID = 81461  Game Provider Name = Leap   Game Name =  GangStar  cod = 404   src = https://resources.kontrbet.com/products/rubyplay/web/gangstar.jpg</t>
-  </si>
-  <si>
     <t>1027  Game ID = 81490  Game Provider Name = Playpearls   Game Name =  Gangster City  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -1151,9 +872,6 @@
     <t>1036  Game ID = 81027  Game Provider Name = Yggdrasil   Game Name =  Gator Gold Gigablox  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1037  Game ID = 82171  Game Provider Name = PlayTech   Game Name =  Geisha Story  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1038  Game ID = 82172  Game Provider Name = PlayTech   Game Name =  Gem Heat (Bars and 7's)  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -1169,9 +887,6 @@
     <t>1052  Game ID = 81008  Game Provider Name = Yggdrasil   Game Name =  Giza Infinity Reels™  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1054  Game ID = 80893  Game Provider Name = Hacksaw   Game Name =  Gladiator Legends  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1055  Game ID = 82275  Game Provider Name = PlayTech   Game Name =  Glorious Guardians  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -1181,9 +896,6 @@
     <t>1058  Game ID = 82524  Game Provider Name = RealisticGames   Game Name =  Go Wild on Safari Pull Tab  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1059  Game ID = 82739  Game Provider Name = Salsa   Game Name =  Goal Bingo  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1063  Game ID = 80514  Game Provider Name = RedTiger   Game Name =  God of Wealth  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -1193,27 +905,15 @@
     <t>1067  Game ID = 80854  Game Provider Name = Booongo   Game Name =  God's Temple  src = https://static.egamings.com/games/booongo/gods_temple.jpg</t>
   </si>
   <si>
-    <t>1070  Game ID = 81452  Game Provider Name = Leap   Game Name =  Gold Bonanza  cod = 404   src = https://resources.kontrbet.com/products/rubyplay/web/goldbonanza.jpg</t>
-  </si>
-  <si>
     <t>1071  Game ID = 82670  Game Provider Name = Hacksaw   Game Name =  Gold Coins  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
     <t>1075  Game ID = 82323  Game Provider Name = PlayTech   Game Name =  Gold Hit: O'Reillys Riches  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1079  Game ID = 82272  Game Provider Name = PlayTech   Game Name =  Gold Pile Orangutan  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1080  Game ID = 82173  Game Provider Name = PlayTech   Game Name =  Gold Pile Tigers Pride  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1081  Game ID = 82174  Game Provider Name = PlayTech   Game Name =  Gold Pile: Toltec Treasure  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>1082  Game ID = 82175  Game Provider Name = PlayTech   Game Name =  Gold Rally  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1085  Game ID = 82678  Game Provider Name = Hacksaw   Game Name =  Gold Rush  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -1244,9 +944,6 @@
     <t>1116  Game ID = 81492  Game Provider Name = Playpearls   Game Name =  Golden Stars  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1120  Game ID = 82176  Game Provider Name = PlayTech   Game Name =  Golden Tour  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1124  Game ID = 80453  Game Provider Name = NetEnt   Game Name =  Gonzo's Gold  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -1262,9 +959,6 @@
     <t>1132  Game ID = 82301  Game Provider Name = PlayTech   Game Name =  Grand Junction: Enchanted Inca  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1133  Game ID = 82303  Game Provider Name = PlayTech   Game Name =  Grand Junction: Moscow Magic  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1134  Game ID = 81601  Game Provider Name = RubyPlay   Game Name =  Grand Mariachi  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -1274,9 +968,6 @@
     <t>1136  Game ID = 80522  Game Provider Name = RedTiger   Game Name =  Grand Wheel  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1138  Game ID = 82177  Game Provider Name = PlayTech   Game Name =  Great Blue  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1149  Game ID = 82327  Game Provider Name = PlayTech   Game Name =  Green Wizard  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -1286,36 +977,18 @@
     <t>1155  Game ID = 80376  Game Provider Name = NetEnt   Game Name =  Guns N' Roses Video Slots™  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1157  Game ID = 80732  Game Provider Name = Spinthon   Game Name =  Gypsy Soul  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1158  Game ID = 80958  Game Provider Name = Yggdrasil   Game Name =  Hades Gigablox  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1159  Game ID = 82178  Game Provider Name = PlayTech   Game Name =  Hainan Ice  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1160  Game ID = 81493  Game Provider Name = Playpearls   Game Name =  Hallo Wins Day  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1162  Game ID = 82179  Game Provider Name = PlayTech   Game Name =  Halloween Fortune  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>1163  Game ID = 82180  Game Provider Name = PlayTech   Game Name =  Halloween Fortune II  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1164  Game ID = 82289  Game Provider Name = PlayTech   Game Name =  Halloween Fortune Scratch  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1165  Game ID = 82740  Game Provider Name = Salsa   Game Name =  Halloween Groove  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1166  Game ID = 80377  Game Provider Name = NetEnt   Game Name =  Halloween Jack™  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1175  Game ID = 80918  Game Provider Name = Hacksaw   Game Name =  Hand of Anubis  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1178  Game ID = 80959  Game Provider Name = Yggdrasil   Game Name =  Hanzo's Dojo  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -1325,10 +998,7 @@
     <t>1186  Game ID = 81749  Game Provider Name = NoLimitCity   Game Name =  Harlequin Carnival  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1187  Game ID = 80896  Game Provider Name = Hacksaw   Game Name =  Harvest Wilds  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>1189  Game ID = 82181  Game Provider Name = PlayTech   Game Name =  Haunted House  cod = 403   src = https://resources.kontrbet.com/products/</t>
+    <t>1188  Game ID = 82181  Game Provider Name = PlayTech   Game Name =  Haunted House  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
     <t>1192  Game ID = 82182  Game Provider Name = PlayTech   Game Name =  Heart of the Frontier  cod = 403   src = https://resources.kontrbet.com/products/</t>
@@ -1343,30 +1013,18 @@
     <t>1197  Game ID = 80448  Game Provider Name = NetEnt   Game Name =  Hell's Kitchen™  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1198  Game ID = 80734  Game Provider Name = Spinthon   Game Name =  Her Majesty's Knights  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>1199  Game ID = 81460  Game Provider Name = Leap   Game Name =  Hercules  cod = 404   src = https://resources.kontrbet.com/products/rubyplay/web/hercules.jpg</t>
+    <t>1198  Game ID = 80734  Game Provider Name = Spinthon   Game Name =  Her Majesty's Knights  cod = 404   src = https://resources.kontrbet.com/products/spinthon/web/Her-Majesty.jpg</t>
   </si>
   <si>
     <t>1202  Game ID = 82292  Game Provider Name = PlayTech   Game Name =  Heroes Arrow  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1207  Game ID = 82184  Game Provider Name = PlayTech   Game Name =  Highway Kings  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1213  Game ID = 81494  Game Provider Name = Playpearls   Game Name =  Hippie Roll  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
     <t>1214  Game ID = 81028  Game Provider Name = Yggdrasil   Game Name =  HippoPop™  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1226  Game ID = 82503  Game Provider Name = Spinthon   Game Name =  Holy Night  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>1232  Game ID = 80905  Game Provider Name = Hacksaw   Game Name =  Hop'n'Pop  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1234  Game ID = 81740  Game Provider Name = NoLimitCity   Game Name =  Hot 4 Cash  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -1379,9 +1037,6 @@
     <t>1244  Game ID = 82531  Game Provider Name = RealisticGames   Game Name =  Hot Cross Bunnies Pull Tab  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1245  Game ID = 82300  Game Provider Name = PlayTech   Game Name =  Hot Crown Deluxe  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1247  Game ID = 82185  Game Provider Name = PlayTech   Game Name =  Hot Gems  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -1436,9 +1091,6 @@
     <t>1304  Game ID = 82532  Game Provider Name = RealisticGames   Game Name =  It Came from the Moon Pull Tab  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1305  Game ID = 80919  Game Provider Name = Hacksaw   Game Name =  Itero  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1306  Game ID = 80692  Game Provider Name = FelixGaming   Game Name =  It's a Joker  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -1496,9 +1148,6 @@
     <t>1332  Game ID = 80527  Game Provider Name = RedTiger   Game Name =  Jester Spins  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1333  Game ID = 80728  Game Provider Name = Spinthon   Game Name =  Jester Temptation  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1339  Game ID = 82534  Game Provider Name = RealisticGames   Game Name =  Jewellery Box Pull Tab  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -1517,21 +1166,12 @@
     <t>1345  Game ID = 80386  Game Provider Name = NetEnt   Game Name =  Jingle Spin™  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1347  Game ID = 82741  Game Provider Name = Salsa   Game Name =  Jogo dos Bichos Praia  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1348  Game ID = 80031  Game Provider Name = PragmaticPlay   Game Name =  John Hunter and the Aztec Treasure  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
     <t>1354  Game ID = 81020  Game Provider Name = Yggdrasil   Game Name =  Johnan Legendarian  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1356  Game ID = 80898  Game Provider Name = Hacksaw   Game Name =  Joker Bombs  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>1358  Game ID = 80718  Game Provider Name = Spinthon   Game Name =  Joker Express  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1359  Game ID = 81444  Game Provider Name = KalambaNew   Game Name =  Joker Fortune Blitz  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -1553,9 +1193,6 @@
     <t>1372  Game ID = 82818  Game Provider Name = PlaynGo   Game Name =  Joker Poker MH  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1373  Game ID = 80717  Game Provider Name = Spinthon   Game Name =  Joker Power  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1375  Game ID = 82315  Game Provider Name = PlayTech   Game Name =  Joker Rush  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -1598,10 +1235,7 @@
     <t>1408  Game ID = 81777  Game Provider Name = NoLimitCity   Game Name =  Karen Maneater  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1410  Game ID = 82819  Game Provider Name = PlaynGo   Game Name =  Keno  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>1413  Game ID = 80897  Game Provider Name = Hacksaw   Game Name =  King Carrot  cod = 403   src = https://resources.kontrbet.com/products/</t>
+    <t>1409  Game ID = 82819  Game Provider Name = PlaynGo   Game Name =  Keno  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
     <t>1416  Game ID = 82650  Game Provider Name = Hacksaw   Game Name =  King Treasure  cod = 403   src = https://resources.kontrbet.com/products/</t>
@@ -1649,9 +1283,6 @@
     <t>1460  Game ID = 82302  Game Provider Name = PlayTech   Game Name =  Leprechauns Luck: Cash Collect  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1463  Game ID = 80914  Game Provider Name = Hacksaw   Game Name =  Let It Snow  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1465  Game ID = 82198  Game Provider Name = PlayTech   Game Name =  Lie Yan Zuan Shi  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -1721,12 +1352,6 @@
     <t>1518  Game ID = 82683  Game Provider Name = Fugaso   Game Name =  Lucky Spin Euro Roulette  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1519  Game ID = 80750  Game Provider Name = Spinthon   Game Name =  Lucky Stack  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>1520  Game ID = 81356  Game Provider Name = Microgaming   Game Name =  Lucky Twins Link&amp;Win  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1522  Game ID = 80535  Game Provider Name = RedTiger   Game Name =  Lucky Wizard  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -1808,15 +1433,9 @@
     <t>1585  Game ID = 81770  Game Provider Name = NoLimitCity   Game Name =  Mental  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1588  Game ID = 81451  Game Provider Name = Leap   Game Name =  Mermaid’s Love  cod = 404   src = https://resources.kontrbet.com/products/rubyplay/web/mermaidslove.jpg</t>
-  </si>
-  <si>
     <t>1592  Game ID = 82682  Game Provider Name = Yggdrasil   Game Name =  MexoMax!  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1594  Game ID = 80911  Game Provider Name = Hacksaw   Game Name =  Miami Multiplier  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1595  Game ID = 80800  Game Provider Name = RealisticGames   Game Name =  Mice n Easy  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -1883,9 +1502,6 @@
     <t>1641  Game ID = 82208  Game Provider Name = PlayTech   Game Name =  Mr. Cashback  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1643  Game ID = 80731  Game Provider Name = Spinthon   Game Name =  Muay Boran  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1647  Game ID = 80969  Game Provider Name = Yggdrasil   Game Name =  MultiFly!™  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -1901,18 +1517,12 @@
     <t>1655  Game ID = 80141  Game Provider Name = PragmaticPlay   Game Name =  Mysterious Egypt™  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1658  Game ID = 80913  Game Provider Name = Hacksaw   Game Name =  Mystery Motel  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1662  Game ID = 80546  Game Provider Name = RedTiger   Game Name =  Mystery Reels Power Reels  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
     <t>1663  Game ID = 80183  Game Provider Name = PragmaticPlay   Game Name =  Mystic Chief  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1664  Game ID = 80737  Game Provider Name = Spinthon   Game Name =  Mystic Forest  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1668  Game ID = 82326  Game Provider Name = PlayTech   Game Name =  Mystic Tales - Mighty Hat  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -1970,15 +1580,9 @@
     <t>1710  Game ID = 81766  Game Provider Name = NoLimitCity   Game Name =  Oktoberfest  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1712  Game ID = 80910  Game Provider Name = Hacksaw   Game Name =  OmNom  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1716  Game ID = 80972  Game Provider Name = Yggdrasil   Game Name =  Orient Express  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1717  Game ID = 80921  Game Provider Name = Hacksaw   Game Name =  Outlaws Inc.  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1719  Game ID = 81733  Game Provider Name = NoLimitCity   Game Name =  Owls  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -1988,9 +1592,6 @@
     <t>1721  Game ID = 80400  Game Provider Name = NetEnt   Game Name =  Ozzy Osbourne Video Slots  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1722  Game ID = 82742  Game Provider Name = Salsa   Game Name =  Pachinko 3D  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1725  Game ID = 82213  Game Provider Name = PlayTech   Game Name =  Panda Luck  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -2012,9 +1613,6 @@
     <t>1734  Game ID = 80447  Game Provider Name = NetEnt   Game Name =  Parthenon: Quest of Immortality™  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1735  Game ID = 81459  Game Provider Name = Leap   Game Name =  Party Fruits  cod = 404   src = https://resources.kontrbet.com/products/rubyplay/web/partyfruits.jpg</t>
-  </si>
-  <si>
     <t>1741  Game ID = 81784  Game Provider Name = NoLimitCity   Game Name =  Pearl Harbor  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -2024,10 +1622,10 @@
     <t>1746  Game ID = 80973  Game Provider Name = Yggdrasil   Game Name =  Penguin City  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1747  Game ID = 81526  Game Provider Name = Playpearls   Game Name =  Penguin Vacation  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>1748  Game ID = 82216  Game Provider Name = PlayTech   Game Name =  Penguin Vacation  cod = 403   src = https://resources.kontrbet.com/products/</t>
+    <t>1747  Game ID = 82216  Game Provider Name = PlayTech   Game Name =  Penguin Vacation  cod = 403   src = https://resources.kontrbet.com/products/</t>
+  </si>
+  <si>
+    <t>1748  Game ID = 81526  Game Provider Name = Playpearls   Game Name =  Penguin Vacation  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
     <t>1752  Game ID = 82537  Game Provider Name = RealisticGames   Game Name =  Perfect Pairs 21+3 Blackjack (3 Box)  cod = 403   src = https://resources.kontrbet.com/products/</t>
@@ -2066,18 +1664,12 @@
     <t>1768  Game ID = 80184  Game Provider Name = PragmaticPlay   Game Name =  Piggy Bank Bills  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1775  Game ID = 81361  Game Provider Name = Microgaming   Game Name =  Piles of Presents  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1777  Game ID = 80034  Game Provider Name = PragmaticPlay   Game Name =  Pirate Gold  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
     <t>1778  Game ID = 80133  Game Provider Name = PragmaticPlay   Game Name =  Pirate Gold Deluxe™  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1781  Game ID = 82750  Game Provider Name = Salsa   Game Name =  Pirates  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1782  Game ID = 80974  Game Provider Name = Yggdrasil   Game Name =  Pirates 2: Mutiny  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -2096,9 +1688,6 @@
     <t>1793  Game ID = 82219  Game Provider Name = PlayTech   Game Name =  Plenty O`Fortune  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1794  Game ID = 82322  Game Provider Name = PlayTech   Game Name =  Plunder Ahoy  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1795  Game ID = 81745  Game Provider Name = NoLimitCity   Game Name =  Poison Eve  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -2264,9 +1853,6 @@
     <t>1931  Game ID = 80206  Game Provider Name = PragmaticPlay   Game Name =  Rock Vegas  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1933  Game ID = 80902  Game Provider Name = Hacksaw   Game Name =  Rocket Reels  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>1935  Game ID = 81508  Game Provider Name = Playpearls   Game Name =  Roll &amp; Ride  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -2318,9 +1904,6 @@
     <t>1976  Game ID = 82230  Game Provider Name = PlayTech   Game Name =  Santa Surprise  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>1977  Game ID = 81456  Game Provider Name = Leap   Game Name =  Santa’s Gifts  cod = 404   src = https://resources.kontrbet.com/products/rubyplay/web/Santasgifts.jpg</t>
-  </si>
-  <si>
     <t>1982  Game ID = 80190  Game Provider Name = PragmaticPlay   Game Name =  Santa's Wonderland™  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -2375,9 +1958,6 @@
     <t>2011  Game ID = 82232  Game Provider Name = PlayTech   Game Name =  Secrets of the Amazon  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2012  Game ID = 81448  Game Provider Name = Leap   Game Name =  Secrets of the Nile  cod = 404   src = https://resources.kontrbet.com/products/rubyplay/web/secretsofthenile.jpg</t>
-  </si>
-  <si>
     <t>2013  Game ID = 80757  Game Provider Name = Spinthon   Game Name =  Sekabet Crown  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -2420,9 +2000,6 @@
     <t>2036  Game ID = 82543  Game Provider Name = RealisticGames   Game Name =  Shore Thing Pull Tab  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2039  Game ID = 82743  Game Provider Name = Salsa   Game Name =  Showball Plus  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>2041  Game ID = 82544  Game Provider Name = RealisticGames   Game Name =  Shuffle Bots Pull Tab  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -2537,9 +2114,6 @@
     <t>2107  Game ID = 82638  Game Provider Name = Hacksaw   Game Name =  Spooky Scary Scratchy  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2108  Game ID = 80915  Game Provider Name = Hacksaw   Game Name =  Stack 'Em  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>2109  Game ID = 82635  Game Provider Name = Hacksaw   Game Name =  Stack 'em Scratch  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -2576,9 +2150,6 @@
     <t>2123  Game ID = 81734  Game Provider Name = NoLimitCity   Game Name =  Starstruck  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2127  Game ID = 80909  Game Provider Name = Hacksaw   Game Name =  Stick 'em  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>2129  Game ID = 81901  Game Provider Name = PlaynGo   Game Name =  Sticky Joker  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -2594,15 +2165,9 @@
     <t>2136  Game ID = 80106  Game Provider Name = PragmaticPlay   Game Name =  Street Racer™  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2137  Game ID = 80729  Game Provider Name = Spinthon   Game Name =  Strike it Rich  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>2142  Game ID = 82680  Game Provider Name = Hacksaw   Game Name =  Summer Scratch  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2148  Game ID = 80758  Game Provider Name = Spinthon   Game Name =  Sun Triad  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>2149  Game ID = 82245  Game Provider Name = PlayTech   Game Name =  Sun Wukong  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -2624,24 +2189,12 @@
     <t>2163  Game ID = 82071  Game Provider Name = PlaysonDirect   Game Name =  Super Burning Wins  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2166  Game ID = 82744  Game Provider Name = Salsa   Game Name =  Super Flex Bingo  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>2167  Game ID = 81903  Game Provider Name = PlaynGo   Game Name =  Super Flip  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
     <t>2172  Game ID = 82553  Game Provider Name = RealisticGames   Game Name =  Super Graphics Upside Down Pull Tab  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2173  Game ID = 82745  Game Provider Name = Salsa   Game Name =  Super Hot Bingo  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>2176  Game ID = 82746  Game Provider Name = Salsa   Game Name =  Super Pachinko  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>2177  Game ID = 82747  Game Provider Name = Salsa   Game Name =  Super Pachinko Plus  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>2181  Game ID = 80441  Game Provider Name = NetEnt   Game Name =  Super Striker™  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -2651,9 +2204,6 @@
     <t>2185  Game ID = 80188  Game Provider Name = PragmaticPlay   Game Name =  Super X™  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2186  Game ID = 82748  Game Provider Name = Salsa   Game Name =  Super Zodiac Bingo  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>2187  Game ID = 80460  Game Provider Name = NetEnt   Game Name =  Superstars  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -2672,9 +2222,6 @@
     <t>2194  Game ID = 80023  Game Provider Name = PragmaticPlay   Game Name =  Sweet Bonanza Xmas  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2195  Game ID = 81464  Game Provider Name = Leap   Game Name =  Sweet Vegas  cod = 404   src = https://resources.kontrbet.com/products/rubyplay/web/sweetvegas.jpg</t>
-  </si>
-  <si>
     <t>2199  Game ID = 80825  Game Provider Name = RealisticGames   Game Name =  Symmetry  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -2693,12 +2240,6 @@
     <t>2207  Game ID = 80101  Game Provider Name = PragmaticPlay   Game Name =  Tales of Egypt  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2209  Game ID = 80899  Game Provider Name = Hacksaw   Game Name =  Tasty Treats  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>2214  Game ID = 80735  Game Provider Name = Spinthon   Game Name =  Temple of the Sun  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>2215  Game ID = 80983  Game Provider Name = Yggdrasil   Game Name =  Temple Stacks: Splitz™  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -2741,9 +2282,6 @@
     <t>2230  Game ID = 81781  Game Provider Name = NoLimitCity   Game Name =  The Border  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2231  Game ID = 80895  Game Provider Name = Hacksaw   Game Name =  The Bowery Boys  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>2232  Game ID = 80093  Game Provider Name = PragmaticPlay   Game Name =  The Catfather  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -2786,7 +2324,7 @@
     <t>2246  Game ID = 81958  Game Provider Name = PlaynGo   Game Name =  The Green Knight  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2247  Game ID = 80749  Game Provider Name = Spinthon   Game Name =  The Healer  cod = 403   src = https://resources.kontrbet.com/products/</t>
+    <t>2247  Game ID = 80749  Game Provider Name = Spinthon   Game Name =  The Healer  cod = 404   src = https://resources.kontrbet.com/products/spinthon/web/The-Healer.jpg</t>
   </si>
   <si>
     <t>2248  Game ID = 81025  Game Provider Name = Yggdrasil   Game Name =  The Hot Offer  cod = 403   src = https://resources.kontrbet.com/products/</t>
@@ -2816,9 +2354,6 @@
     <t>2263  Game ID = 81779  Game Provider Name = NoLimitCity   Game Name =  The Rave  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2264  Game ID = 80912  Game Provider Name = Hacksaw   Game Name =  The Respinners  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>2265  Game ID = 82249  Game Provider Name = PlayTech   Game Name =  The Riches of Don Quixote  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -2828,9 +2363,6 @@
     <t>2269  Game ID = 81908  Game Provider Name = PlaynGo   Game Name =  The Sword and The Grail  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2270  Game ID = 80744  Game Provider Name = Spinthon   Game Name =  The Syndicate  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>2273  Game ID = 81512  Game Provider Name = Playpearls   Game Name =  The Vikings  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -2858,12 +2390,6 @@
     <t>2294  Game ID = 81961  Game Provider Name = PlaynGo   Game Name =  Thunder Screech  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2295  Game ID = 80726  Game Provider Name = Spinthon   Game Name =  Thunder Wild  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>2296  Game ID = 81354  Game Provider Name = Microgaming   Game Name =  Thunderstruck Stormchaser  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>2297  Game ID = 80195  Game Provider Name = PragmaticPlay   Game Name =  Tic Tac Take  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -2879,9 +2405,6 @@
     <t>2305  Game ID = 82252  Game Provider Name = PlayTech   Game Name =  Tiger Turtle Dragon Phoenix  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2307  Game ID = 82428  Game Provider Name = Microgaming   Game Name =  Tiger's Ice  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>2308  Game ID = 81513  Game Provider Name = Playpearls   Game Name =  Tiki Beach  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -2891,9 +2414,6 @@
     <t>2313  Game ID = 81014  Game Provider Name = Yggdrasil   Game Name =  Tiki Pop  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2318  Game ID = 80925  Game Provider Name = Hacksaw   Game Name =  Time Spinners  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>2319  Game ID = 80985  Game Provider Name = Yggdrasil   Game Name =  Time Travel Tigers  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -2915,12 +2435,6 @@
     <t>2325  Game ID = 81773  Game Provider Name = NoLimitCity   Game Name =  Tombstone R.I.P.  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2327  Game ID = 80903  Game Provider Name = Hacksaw   Game Name =  Toshi Video Club  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>2328  Game ID = 80748  Game Provider Name = Spinthon   Game Name =  Totem Grace  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>2330  Game ID = 80572  Game Provider Name = RedTiger   Game Name =  Totem Lightning Power Reels  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -2930,9 +2444,6 @@
     <t>2337  Game ID = 81737  Game Provider Name = NoLimitCity   Game Name =  Tractor Beam  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2338  Game ID = 80754  Game Provider Name = Spinthon   Game Name =  Trapper's Destiny  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>2340  Game ID = 80039  Game Provider Name = PragmaticPlay   Game Name =  Treasure Horse  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -2951,9 +2462,6 @@
     <t>2348  Game ID = 80028  Game Provider Name = PragmaticPlay   Game Name =  Tree of Riches  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2350  Game ID = 80730  Game Provider Name = Spinthon   Game Name =  Triple Big Fruits  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>2351  Game ID = 80043  Game Provider Name = PragmaticPlay   Game Name =  Triple Dragons  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -3023,9 +2531,6 @@
     <t>2380  Game ID = 80928  Game Provider Name = Hacksaw   Game Name =  Undead Fortune  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2382  Game ID = 81455  Game Provider Name = Leap   Game Name =  Unicorn Forest  cod = 404   src = https://resources.kontrbet.com/products/rubyplay/web/unicornforest.jpg</t>
-  </si>
-  <si>
     <t>2383  Game ID = 82043  Game Provider Name = PlaynGo   Game Name =  USA Flip  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -3041,9 +2546,6 @@
     <t>2389  Game ID = 80990  Game Provider Name = Yggdrasil   Game Name =  Valley of the Gods 2  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2390  Game ID = 81454  Game Provider Name = Leap   Game Name =  Vampire Kiss  cod = 404   src = https://resources.kontrbet.com/products/rubyplay/web/vampirekiss.jpg</t>
-  </si>
-  <si>
     <t>2391  Game ID = 82260  Game Provider Name = PlayTech   Game Name =  Vampire Princess of Darkness  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -3089,15 +2591,9 @@
     <t>2418  Game ID = 80427  Game Provider Name = NetEnt   Game Name =  Vikings Video Slot  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2422  Game ID = 81468  Game Provider Name = Leap   Game Name =  Virtual Football League  cod = 404   src = https://resources.kontrbet.com/products/rubyplay/web/virtualfootballleague.jpg</t>
-  </si>
-  <si>
     <t>2425  Game ID = 80140  Game Provider Name = PragmaticPlay   Game Name =  Voodoo Magic™  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2426  Game ID = 80901  Game Provider Name = Hacksaw   Game Name =  Wanted Dead or a Wild  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>2427  Game ID = 82802  Game Provider Name = Habanero   Game Name =  War  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -3107,12 +2603,6 @@
     <t>2431  Game ID = 81758  Game Provider Name = NoLimitCity   Game Name =  Warrior Graveyard xNudge  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2432  Game ID = 80892  Game Provider Name = Hacksaw   Game Name =  Warrior Ways  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>2433  Game ID = 80745  Game Provider Name = Spinthon   Game Name =  Watch the Neighbor  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>2435  Game ID = 81522  Game Provider Name = Playpearls   Game Name =  Way of the Warrior  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -3125,9 +2615,6 @@
     <t>2439  Game ID = 82261  Game Provider Name = PlayTech   Game Name =  Ways Of The Phoenix  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2444  Game ID = 82104  Game Provider Name = PlayTech   Game Name =  White King  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>2445  Game ID = 82262  Game Provider Name = PlayTech   Game Name =  White King II  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -3158,9 +2645,6 @@
     <t>2469  Game ID = 80038  Game Provider Name = PragmaticPlay   Game Name =  Wild Gladiators  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2470  Game ID = 81457  Game Provider Name = Leap   Game Name =  Wild Gods  cod = 404   src = https://resources.kontrbet.com/products/rubyplay/web/wildgods.jpg</t>
-  </si>
-  <si>
     <t>2471  Game ID = 80249  Game Provider Name = PragmaticPlay   Game Name =  Wild Hop&amp;Drop  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -3194,9 +2678,6 @@
     <t>2492  Game ID = 81518  Game Provider Name = Playpearls   Game Name =  Wild School Soft  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
-    <t>2493  Game ID = 80742  Game Provider Name = Spinthon   Game Name =  Wild Seven  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
     <t>2495  Game ID = 80071  Game Provider Name = PragmaticPlay   Game Name =  Wild Spells  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
@@ -3264,12 +2745,6 @@
   </si>
   <si>
     <t>2543  Game ID = 82267  Game Provider Name = PlayTech   Game Name =  Wu Long  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>2548  Game ID = 80743  Game Provider Name = Spinthon   Game Name =  X and the City  cod = 403   src = https://resources.kontrbet.com/products/</t>
-  </si>
-  <si>
-    <t>2552  Game ID = 80904  Game Provider Name = Hacksaw   Game Name =  XPANDER  cod = 403   src = https://resources.kontrbet.com/products/</t>
   </si>
   <si>
     <t>2553  Game ID = 81764  Game Provider Name = NoLimitCity   Game Name =  xWays Hoarder xSplit  cod = 403   src = https://resources.kontrbet.com/products/</t>
@@ -3341,7 +2816,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A1095"/>
+  <dimension ref="A1:A920"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -7950,881 +7425,6 @@
         <v>919</v>
       </c>
     </row>
-    <row r="921">
-      <c r="A921" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="922">
-      <c r="A922" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="923">
-      <c r="A923" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="924">
-      <c r="A924" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="925">
-      <c r="A925" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="926">
-      <c r="A926" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="927">
-      <c r="A927" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="928">
-      <c r="A928" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="929">
-      <c r="A929" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="930">
-      <c r="A930" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="931">
-      <c r="A931" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="932">
-      <c r="A932" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="933">
-      <c r="A933" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="934">
-      <c r="A934" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="935">
-      <c r="A935" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="936">
-      <c r="A936" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="937">
-      <c r="A937" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="938">
-      <c r="A938" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="939">
-      <c r="A939" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="940">
-      <c r="A940" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="941">
-      <c r="A941" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="942">
-      <c r="A942" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="943">
-      <c r="A943" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="944">
-      <c r="A944" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="945">
-      <c r="A945" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="946">
-      <c r="A946" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="947">
-      <c r="A947" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="948">
-      <c r="A948" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="949">
-      <c r="A949" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="950">
-      <c r="A950" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="951">
-      <c r="A951" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="952">
-      <c r="A952" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="953">
-      <c r="A953" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="954">
-      <c r="A954" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="955">
-      <c r="A955" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="956">
-      <c r="A956" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="957">
-      <c r="A957" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="958">
-      <c r="A958" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="959">
-      <c r="A959" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="960">
-      <c r="A960" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="961">
-      <c r="A961" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="962">
-      <c r="A962" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="963">
-      <c r="A963" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="964">
-      <c r="A964" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="965">
-      <c r="A965" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="966">
-      <c r="A966" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="967">
-      <c r="A967" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="968">
-      <c r="A968" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="969">
-      <c r="A969" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="970">
-      <c r="A970" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="971">
-      <c r="A971" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="972">
-      <c r="A972" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="973">
-      <c r="A973" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="974">
-      <c r="A974" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="975">
-      <c r="A975" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="976">
-      <c r="A976" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="977">
-      <c r="A977" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="978">
-      <c r="A978" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="979">
-      <c r="A979" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="980">
-      <c r="A980" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="981">
-      <c r="A981" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="982">
-      <c r="A982" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="983">
-      <c r="A983" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="984">
-      <c r="A984" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="985">
-      <c r="A985" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="986">
-      <c r="A986" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="987">
-      <c r="A987" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="988">
-      <c r="A988" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="989">
-      <c r="A989" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="990">
-      <c r="A990" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="991">
-      <c r="A991" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="993">
-      <c r="A993" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="994">
-      <c r="A994" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="995">
-      <c r="A995" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="996">
-      <c r="A996" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="997">
-      <c r="A997" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="998">
-      <c r="A998" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="999">
-      <c r="A999" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="1000">
-      <c r="A1000" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="1001">
-      <c r="A1001" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="1002">
-      <c r="A1002" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="1003">
-      <c r="A1003" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="1004">
-      <c r="A1004" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="1005">
-      <c r="A1005" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="1006">
-      <c r="A1006" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="1007">
-      <c r="A1007" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="1008">
-      <c r="A1008" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="1009">
-      <c r="A1009" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="1010">
-      <c r="A1010" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="1011">
-      <c r="A1011" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="1012">
-      <c r="A1012" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="1013">
-      <c r="A1013" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="1014">
-      <c r="A1014" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="1015">
-      <c r="A1015" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="1016">
-      <c r="A1016" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="1017">
-      <c r="A1017" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="1018">
-      <c r="A1018" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="1019">
-      <c r="A1019" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="1020">
-      <c r="A1020" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="1021">
-      <c r="A1021" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="1022">
-      <c r="A1022" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="1023">
-      <c r="A1023" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="1024">
-      <c r="A1024" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="1025">
-      <c r="A1025" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="1026">
-      <c r="A1026" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="1027">
-      <c r="A1027" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="1028">
-      <c r="A1028" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="1029">
-      <c r="A1029" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="1030">
-      <c r="A1030" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="1031">
-      <c r="A1031" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="1032">
-      <c r="A1032" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="1033">
-      <c r="A1033" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="1034">
-      <c r="A1034" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="1035">
-      <c r="A1035" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="1036">
-      <c r="A1036" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="1037">
-      <c r="A1037" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="1038">
-      <c r="A1038" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="1039">
-      <c r="A1039" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="1040">
-      <c r="A1040" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="1041">
-      <c r="A1041" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="1042">
-      <c r="A1042" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="1043">
-      <c r="A1043" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="1044">
-      <c r="A1044" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="1045">
-      <c r="A1045" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="1046">
-      <c r="A1046" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="1047">
-      <c r="A1047" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="1048">
-      <c r="A1048" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="1049">
-      <c r="A1049" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="1050">
-      <c r="A1050" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="1051">
-      <c r="A1051" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="1052">
-      <c r="A1052" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="1053">
-      <c r="A1053" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="1054">
-      <c r="A1054" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="1055">
-      <c r="A1055" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="1056">
-      <c r="A1056" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="1057">
-      <c r="A1057" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="1058">
-      <c r="A1058" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="1059">
-      <c r="A1059" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="1060">
-      <c r="A1060" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="1061">
-      <c r="A1061" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="1062">
-      <c r="A1062" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="1063">
-      <c r="A1063" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="1064">
-      <c r="A1064" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="1065">
-      <c r="A1065" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="1066">
-      <c r="A1066" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="1067">
-      <c r="A1067" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="1068">
-      <c r="A1068" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="1069">
-      <c r="A1069" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="1070">
-      <c r="A1070" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="1071">
-      <c r="A1071" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="1072">
-      <c r="A1072" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="1073">
-      <c r="A1073" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="1074">
-      <c r="A1074" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="1075">
-      <c r="A1075" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="1076">
-      <c r="A1076" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="1077">
-      <c r="A1077" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="1078">
-      <c r="A1078" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="1079">
-      <c r="A1079" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="1080">
-      <c r="A1080" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="1081">
-      <c r="A1081" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="1082">
-      <c r="A1082" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="1083">
-      <c r="A1083" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="1084">
-      <c r="A1084" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="1085">
-      <c r="A1085" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="1086">
-      <c r="A1086" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="1087">
-      <c r="A1087" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="1088">
-      <c r="A1088" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="1089">
-      <c r="A1089" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="1090">
-      <c r="A1090" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="1091">
-      <c r="A1091" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="1092">
-      <c r="A1092" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="1093">
-      <c r="A1093" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="1094">
-      <c r="A1094" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="1095">
-      <c r="A1095" t="s">
-        <v>1094</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
